--- a/excel_with_subclasses/with_count/canal_with_count.xlsx
+++ b/excel_with_subclasses/with_count/canal_with_count.xlsx
@@ -770,7 +770,7 @@
         <v>105</v>
       </c>
       <c r="D3">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="4" spans="1:4">
